--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC18\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1ECAC19-1342-4EEE-8051-4F45184B0518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B14A728-9D55-4EA5-85AB-AE68F9E1D7CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>valor</t>
   </si>
@@ -55,9 +53,6 @@
     <t>T5</t>
   </si>
   <si>
-    <t>prom</t>
-  </si>
-  <si>
     <t>Intel® core™ i7 - 9700 CPU @ 3.00GHZ</t>
   </si>
   <si>
@@ -66,11 +61,17 @@
   <si>
     <t>sistema op whindow 10</t>
   </si>
+  <si>
+    <t>nanosegundo</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,15 +81,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -148,28 +161,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -187,6 +214,2861 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>promedio</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$5:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>168700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>958180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>803280</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1303980</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2744880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170038960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027823140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B7C-41C6-A3B4-A2974ADC84EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1921494399"/>
+        <c:axId val="1921494879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1921494399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921494879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1921494879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921494399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>promedio</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$23:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>499040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>774720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>881360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2640180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142306860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023478460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$23:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>499040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>774720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>881360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2640180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142306860</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023478460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66B1-45F4-AF18-104F4EE8080A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1921494399"/>
+        <c:axId val="1921494879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1921494399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921494879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1921494879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921494399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>promedio</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$39:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>473740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>516680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2717280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72888800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048663620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$39:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>473740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>516680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2717280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72888800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048663620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E32D-4209-AF1D-D63448C7D6CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1921494399"/>
+        <c:axId val="1921494879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1921494399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921494879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1921494879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1921494399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7996158D-8E7A-7847-1859-9EAECF39E2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7996158D-8E7A-7847-1859-9EAECF39E2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7996158D-8E7A-7847-1859-9EAECF39E2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,11 +3367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A07CEE-87D1-432E-9C6C-24FC3ED99BB1}">
-  <dimension ref="B3:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,288 +3379,824 @@
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6"/>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>242000</v>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>153400</v>
       </c>
       <c r="D5" s="5">
-        <v>362900</v>
+        <v>179400</v>
       </c>
       <c r="E5" s="5">
-        <v>336300</v>
+        <v>152800</v>
       </c>
       <c r="F5" s="5">
-        <v>332600</v>
-      </c>
-      <c r="G5" s="4">
-        <v>334400</v>
-      </c>
-      <c r="H5" s="4">
-        <f>AVERAGE(C5:G5)</f>
-        <v>321640</v>
+        <v>175700</v>
+      </c>
+      <c r="G5" s="5">
+        <v>182200</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H14" si="0">AVERAGE(C5:G5)</f>
+        <v>168700</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>153400</v>
-      </c>
-      <c r="D6" s="4">
-        <v>179400</v>
-      </c>
-      <c r="E6" s="4">
-        <v>152800</v>
-      </c>
-      <c r="F6" s="4">
-        <v>175700</v>
-      </c>
-      <c r="G6" s="4">
-        <v>182200</v>
-      </c>
-      <c r="H6" s="4">
-        <f>AVERAGE(C6:G6)</f>
-        <v>168700</v>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
+        <v>223700</v>
+      </c>
+      <c r="D6" s="5">
+        <v>237300</v>
+      </c>
+      <c r="E6" s="5">
+        <v>222300</v>
+      </c>
+      <c r="F6" s="5">
+        <v>236800</v>
+      </c>
+      <c r="G6" s="5">
+        <v>224900</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>229000</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>40000</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1165900</v>
-      </c>
-      <c r="D7" s="4">
-        <v>921900</v>
-      </c>
-      <c r="E7" s="4">
-        <v>845200</v>
-      </c>
-      <c r="F7" s="4">
-        <v>899500</v>
-      </c>
-      <c r="G7" s="4">
-        <v>958400</v>
-      </c>
-      <c r="H7" s="4">
-        <f>AVERAGE(C7:G7)</f>
-        <v>958180</v>
+      <c r="B7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>242000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>362900</v>
+      </c>
+      <c r="E7" s="6">
+        <v>336300</v>
+      </c>
+      <c r="F7" s="6">
+        <v>332600</v>
+      </c>
+      <c r="G7" s="5">
+        <v>334400</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>321640</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>80000</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1246800</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1332700</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1385300</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1287300</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1267800</v>
-      </c>
-      <c r="H8" s="4">
-        <f>AVERAGE(C8:G8)</f>
-        <v>1303980</v>
+      <c r="B8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>156200</v>
+      </c>
+      <c r="D8" s="5">
+        <v>156200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>155100</v>
+      </c>
+      <c r="F8" s="5">
+        <v>156000</v>
+      </c>
+      <c r="G8" s="5">
+        <v>159700</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>156640</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>70000000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>169180400</v>
-      </c>
-      <c r="D9" s="4">
-        <v>170901200</v>
-      </c>
-      <c r="E9" s="4">
-        <v>172673400</v>
-      </c>
-      <c r="F9" s="4">
-        <v>168718300</v>
-      </c>
-      <c r="G9" s="4">
-        <v>168721500</v>
-      </c>
-      <c r="H9" s="4">
-        <f>AVERAGE(C9:G9)</f>
-        <v>170038960</v>
+      <c r="B9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1165900</v>
+      </c>
+      <c r="D9" s="5">
+        <v>921900</v>
+      </c>
+      <c r="E9" s="5">
+        <v>845200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>899500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>958400</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>958180</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4">
-        <v>223700</v>
-      </c>
-      <c r="D10" s="4">
-        <v>237300</v>
-      </c>
-      <c r="E10" s="4">
-        <v>222300</v>
-      </c>
-      <c r="F10" s="4">
-        <v>236800</v>
-      </c>
-      <c r="G10" s="4">
-        <v>224900</v>
-      </c>
-      <c r="H10" s="4">
-        <f>AVERAGE(C10:G10)</f>
-        <v>229000</v>
+      <c r="B10" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>766700</v>
+      </c>
+      <c r="D10" s="5">
+        <v>750200</v>
+      </c>
+      <c r="E10" s="5">
+        <v>857500</v>
+      </c>
+      <c r="F10" s="5">
+        <v>775300</v>
+      </c>
+      <c r="G10" s="5">
+        <v>866700</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>803280</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>1000000000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2027605100</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2012356300</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2059387000</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1996192700</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2043574600</v>
-      </c>
-      <c r="H11" s="4">
-        <f>AVERAGE(C11:G11)</f>
-        <v>2027823140</v>
+      <c r="B11" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1246800</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1332700</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1385300</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1287300</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1267800</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>1303980</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>156200</v>
-      </c>
-      <c r="D12" s="4">
-        <v>156200</v>
-      </c>
-      <c r="E12" s="4">
-        <v>155100</v>
-      </c>
-      <c r="F12" s="4">
-        <v>156000</v>
-      </c>
-      <c r="G12" s="4">
-        <v>159700</v>
-      </c>
-      <c r="H12" s="4">
-        <f>AVERAGE(C12:G12)</f>
-        <v>156640</v>
+      <c r="B12" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2719600</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2735500</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2581200</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2778700</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2909400</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>2744880</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>70000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>766700</v>
-      </c>
-      <c r="D13" s="4">
-        <v>750200</v>
-      </c>
-      <c r="E13" s="4">
-        <v>857500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>775300</v>
-      </c>
-      <c r="G13" s="4">
-        <v>866700</v>
-      </c>
-      <c r="H13" s="4">
-        <f>AVERAGE(C13:G13)</f>
-        <v>803280</v>
+      <c r="B13" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>169180400</v>
+      </c>
+      <c r="D13" s="5">
+        <v>170901200</v>
+      </c>
+      <c r="E13" s="5">
+        <v>172673400</v>
+      </c>
+      <c r="F13" s="5">
+        <v>168718300</v>
+      </c>
+      <c r="G13" s="5">
+        <v>168721500</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>170038960</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="B14" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2027605100</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2012356300</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2059387000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1996192700</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2043574600</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>2027823140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100300</v>
+      </c>
+      <c r="D23" s="5">
+        <v>103500</v>
+      </c>
+      <c r="E23" s="5">
+        <v>99000</v>
+      </c>
+      <c r="F23" s="5">
+        <v>97200</v>
+      </c>
+      <c r="G23" s="5">
+        <v>99200</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" ref="H23:H32" si="1">AVERAGE(C23:G23)</f>
+        <v>99840</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>100</v>
+      </c>
+      <c r="C24" s="5">
+        <v>97800</v>
+      </c>
+      <c r="D24" s="5">
+        <v>103400</v>
+      </c>
+      <c r="E24" s="5">
+        <v>99400</v>
+      </c>
+      <c r="F24" s="5">
+        <v>101500</v>
+      </c>
+      <c r="G24" s="5">
+        <v>101300</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="1"/>
+        <v>100680</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>134500</v>
+      </c>
+      <c r="D25" s="6">
+        <v>107000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>108700</v>
+      </c>
+      <c r="F25" s="6">
+        <v>113700</v>
+      </c>
+      <c r="G25" s="5">
+        <v>111700</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="1"/>
+        <v>115120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C26" s="5">
+        <v>133300</v>
+      </c>
+      <c r="D26" s="5">
+        <v>134400</v>
+      </c>
+      <c r="E26" s="5">
+        <v>128800</v>
+      </c>
+      <c r="F26" s="5">
+        <v>128400</v>
+      </c>
+      <c r="G26" s="5">
+        <v>125900</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>130160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>40000</v>
+      </c>
+      <c r="C27" s="5">
+        <v>489400</v>
+      </c>
+      <c r="D27" s="5">
+        <v>524900</v>
+      </c>
+      <c r="E27" s="5">
+        <v>485500</v>
+      </c>
+      <c r="F27" s="5">
+        <v>485200</v>
+      </c>
+      <c r="G27" s="5">
+        <v>510200</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>499040</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C28" s="5">
+        <v>774700</v>
+      </c>
+      <c r="D28" s="5">
+        <v>774600</v>
+      </c>
+      <c r="E28" s="5">
+        <v>772400</v>
+      </c>
+      <c r="F28" s="5">
+        <v>775300</v>
+      </c>
+      <c r="G28" s="5">
+        <v>776600</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="1"/>
+        <v>774720</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C29" s="5">
+        <v>890700</v>
+      </c>
+      <c r="D29" s="5">
+        <v>875400</v>
+      </c>
+      <c r="E29" s="5">
+        <v>896800</v>
+      </c>
+      <c r="F29" s="5">
+        <v>870500</v>
+      </c>
+      <c r="G29" s="5">
+        <v>873400</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="1"/>
+        <v>881360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
         <v>600000</v>
       </c>
-      <c r="C14" s="4">
-        <v>2719600</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2735500</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2581200</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2778700</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2909400</v>
-      </c>
-      <c r="H14" s="4">
-        <f>AVERAGE(C14:G14)</f>
-        <v>2744880</v>
+      <c r="C30" s="5">
+        <v>2611900</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2611800</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2659100</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2587500</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2730600</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="1"/>
+        <v>2640180</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
+    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="C31" s="5">
+        <v>145132300</v>
+      </c>
+      <c r="D31" s="5">
+        <v>140775300</v>
+      </c>
+      <c r="E31" s="5">
+        <v>141813100</v>
+      </c>
+      <c r="F31" s="5">
+        <v>140954500</v>
+      </c>
+      <c r="G31" s="5">
+        <v>142859100</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="1"/>
+        <v>142306860</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
+    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2023124400</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2023751100</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2023953700</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2022629100</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2023934000</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="1"/>
+        <v>2023478460</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>9</v>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5">
+        <v>50400</v>
+      </c>
+      <c r="D39" s="5">
+        <v>53100</v>
+      </c>
+      <c r="E39" s="5">
+        <v>52900</v>
+      </c>
+      <c r="F39" s="5">
+        <v>51500</v>
+      </c>
+      <c r="G39" s="5">
+        <v>52100</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" ref="H39:H48" si="2">AVERAGE(C39:G39)</f>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>100</v>
+      </c>
+      <c r="C40" s="5">
+        <v>53800</v>
+      </c>
+      <c r="D40" s="5">
+        <v>55600</v>
+      </c>
+      <c r="E40" s="5">
+        <v>54500</v>
+      </c>
+      <c r="F40" s="5">
+        <v>54500</v>
+      </c>
+      <c r="G40" s="5">
+        <v>51000</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="2"/>
+        <v>53880</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="5">
+        <v>57200</v>
+      </c>
+      <c r="D41" s="6">
+        <v>74300</v>
+      </c>
+      <c r="E41" s="6">
+        <v>58800</v>
+      </c>
+      <c r="F41" s="6">
+        <v>58800</v>
+      </c>
+      <c r="G41" s="5">
+        <v>56000</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="2"/>
+        <v>61020</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>3000</v>
+      </c>
+      <c r="C42" s="5">
+        <v>72000</v>
+      </c>
+      <c r="D42" s="5">
+        <v>74200</v>
+      </c>
+      <c r="E42" s="5">
+        <v>71000</v>
+      </c>
+      <c r="F42" s="5">
+        <v>74700</v>
+      </c>
+      <c r="G42" s="5">
+        <v>74400</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="2"/>
+        <v>73260</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>40000</v>
+      </c>
+      <c r="C43" s="5">
+        <v>289300</v>
+      </c>
+      <c r="D43" s="5">
+        <v>373200</v>
+      </c>
+      <c r="E43" s="5">
+        <v>350400</v>
+      </c>
+      <c r="F43" s="5">
+        <v>354800</v>
+      </c>
+      <c r="G43" s="5">
+        <v>285400</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="2"/>
+        <v>330620</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>70000</v>
+      </c>
+      <c r="C44" s="5">
+        <v>525700</v>
+      </c>
+      <c r="D44" s="5">
+        <v>460300</v>
+      </c>
+      <c r="E44" s="5">
+        <v>464200</v>
+      </c>
+      <c r="F44" s="5">
+        <v>457000</v>
+      </c>
+      <c r="G44" s="5">
+        <v>461500</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="2"/>
+        <v>473740</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>80000</v>
+      </c>
+      <c r="C45" s="5">
+        <v>516300</v>
+      </c>
+      <c r="D45" s="5">
+        <v>514700</v>
+      </c>
+      <c r="E45" s="5">
+        <v>517700</v>
+      </c>
+      <c r="F45" s="5">
+        <v>517900</v>
+      </c>
+      <c r="G45" s="5">
+        <v>516800</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="2"/>
+        <v>516680</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3133200</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2559000</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2562400</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2563700</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2768100</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="2"/>
+        <v>2717280</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="C47" s="5">
+        <v>73015600</v>
+      </c>
+      <c r="D47" s="5">
+        <v>73099200</v>
+      </c>
+      <c r="E47" s="5">
+        <v>72825300</v>
+      </c>
+      <c r="F47" s="5">
+        <v>72887800</v>
+      </c>
+      <c r="G47" s="5">
+        <v>72616100</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="2"/>
+        <v>72888800</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>1000000000</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1054924400</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1053501600</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1008796300</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1055898700</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1070197100</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="2"/>
+        <v>1048663620</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>